--- a/bin/Kostenübersicht.xlsx
+++ b/bin/Kostenübersicht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Kostenübersicht PREN Gruppe 39</t>
   </si>
@@ -22,15 +22,9 @@
     <t>Kamera</t>
   </si>
   <si>
-    <t>Raspberry Pie</t>
-  </si>
-  <si>
     <t>microSD Karte</t>
   </si>
   <si>
-    <t>Güssel</t>
-  </si>
-  <si>
     <t>TEIL</t>
   </si>
   <si>
@@ -56,6 +50,18 @@
   </si>
   <si>
     <t>Restlichen Budget</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Bestellt</t>
+  </si>
+  <si>
+    <t>Geliefert</t>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -159,6 +165,36 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -171,7 +207,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -186,7 +222,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -201,7 +237,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -213,158 +249,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -450,55 +335,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,22 +397,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,207 +719,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="F8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="6">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="18">
+        <v>41685</v>
+      </c>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="6">
+        <v>100</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="6">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="8">
-        <v>30</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="1">
-        <v>80</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="11">
-        <v>100</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="6">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="11">
-        <v>15</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="2">
+        <f>SUM(D9:D21)</f>
+        <v>160</v>
+      </c>
+      <c r="E23" s="2">
+        <f>SUM(E9:E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="11">
-        <v>15</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="4"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="3">
-        <f>SUM(D8:D20)</f>
-        <v>240</v>
-      </c>
-      <c r="E22" s="3">
-        <f>SUM(E8:E20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="5">
-        <f>600-D22</f>
-        <v>360</v>
-      </c>
-      <c r="E23" s="5">
-        <f>600-E22</f>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4">
+        <f>600-D23</f>
+        <v>440</v>
+      </c>
+      <c r="E24" s="4">
+        <f>600-E23</f>
         <v>600</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G4"/>
-    <mergeCell ref="D9:D11"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/Kostenübersicht.xlsx
+++ b/bin/Kostenübersicht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Kostenübersicht PREN Gruppe 39</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Kamera</t>
   </si>
   <si>
-    <t>microSD Karte</t>
-  </si>
-  <si>
     <t>TEIL</t>
   </si>
   <si>
@@ -62,13 +59,34 @@
   </si>
   <si>
     <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>RASPBERRY-PI  RASPBERRY-MODB+/8GB-USD  RASPBERRY PI MODELL B+ 8GB NOOBS USDCARD</t>
+  </si>
+  <si>
+    <t>WLAN Stick USB 2.0 150 MBit/s D-Link DWA-121</t>
+  </si>
+  <si>
+    <t>Raspberry Pi® B+ Gehäuse RB-Case+01B Schwarz</t>
+  </si>
+  <si>
+    <t>Raspberry Gehäuse</t>
+  </si>
+  <si>
+    <t>RPI CAMERA BOARD</t>
+  </si>
+  <si>
+    <t>Rad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;fr.&quot;\ * #,##0.00_ ;_ &quot;fr.&quot;\ * \-#,##0.00_ ;_ &quot;fr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +110,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -351,10 +381,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -415,9 +446,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -721,14 +759,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
@@ -776,76 +814,92 @@
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="F8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="6">
-        <v>30</v>
+        <v>23.27</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="18">
-        <v>41685</v>
+        <v>41960</v>
       </c>
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="10">
-        <v>0</v>
+        <v>37.22</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="18">
+        <v>41970</v>
+      </c>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="10">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="18">
+        <v>41970</v>
+      </c>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="10">
-        <v>0</v>
+        <v>16.95</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="18">
+        <v>41970</v>
+      </c>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="6"/>
@@ -870,7 +924,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="6">
@@ -882,7 +936,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="6">
@@ -894,7 +948,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="6">
@@ -931,12 +985,12 @@
     <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="2">
         <f>SUM(D9:D21)</f>
-        <v>160</v>
+        <v>215.39</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E9:E21)</f>
@@ -945,12 +999,12 @@
     </row>
     <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="4">
         <f>600-D23</f>
-        <v>440</v>
+        <v>384.61</v>
       </c>
       <c r="E24" s="4">
         <f>600-E23</f>

--- a/bin/Kostenübersicht.xlsx
+++ b/bin/Kostenübersicht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Kostenübersicht PREN Gruppe 39</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Motor Drehung</t>
   </si>
   <si>
-    <t>Gesamt Kosten</t>
-  </si>
-  <si>
-    <t>Restlichen Budget</t>
-  </si>
-  <si>
     <t>Raspberry Pi</t>
   </si>
   <si>
@@ -77,6 +71,27 @@
   </si>
   <si>
     <t>Rad</t>
+  </si>
+  <si>
+    <t>Rad Welle</t>
+  </si>
+  <si>
+    <t>Spindel</t>
+  </si>
+  <si>
+    <t>Mutter</t>
+  </si>
+  <si>
+    <t>Zahnrieme</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe Rad</t>
+  </si>
+  <si>
+    <t>Zahnriemenscheibe Motor</t>
+  </si>
+  <si>
+    <t>Bezahlt</t>
   </si>
 </sst>
 </file>
@@ -131,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -225,7 +240,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -234,81 +249,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -385,21 +329,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,12 +348,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,29 +378,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -757,259 +701,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H24"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f>600-SUM(D9:D100)</f>
+        <v>204.61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>23.27</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <v>41960</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="I9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <f>SUM(E9:E100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>37.22</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10">
+        <v>41970</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7.95</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="10">
+        <v>41970</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>16.95</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="10">
+        <v>41970</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6">
-        <v>23.27</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="18">
-        <v>41960</v>
-      </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="28" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2">
         <v>15</v>
       </c>
-      <c r="D10" s="10">
-        <v>37.22</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="18">
-        <v>41970</v>
-      </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="10">
-        <v>7.95</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="18">
-        <v>41970</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="10">
-        <v>16.95</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="18">
-        <v>41970</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="6">
-        <v>100</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="6">
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2">
         <v>15</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="6">
-        <v>15</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="16"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
+      <c r="B20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="14">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="14">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="2">
-        <f>SUM(D9:D21)</f>
-        <v>215.39</v>
-      </c>
-      <c r="E23" s="2">
-        <f>SUM(E9:E21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="14">
         <v>10</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="4">
-        <f>600-D23</f>
-        <v>384.61</v>
-      </c>
-      <c r="E24" s="4">
-        <f>600-E23</f>
-        <v>600</v>
-      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/bin/Kostenübersicht.xlsx
+++ b/bin/Kostenübersicht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Kostenübersicht PREN Gruppe 39</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Budget</t>
   </si>
   <si>
-    <t>Preis</t>
-  </si>
-  <si>
     <t>Motor Drehrad</t>
   </si>
   <si>
@@ -92,6 +89,12 @@
   </si>
   <si>
     <t>Bezahlt</t>
+  </si>
+  <si>
+    <t>Preis (CHF)</t>
+  </si>
+  <si>
+    <t>Budget (CHF)</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -395,6 +398,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J22"/>
+  <dimension ref="B1:J131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +720,7 @@
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -755,32 +762,38 @@
       <c r="G5" s="24"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J8">
         <f>600-SUM(D9:D100)</f>
-        <v>204.61</v>
+        <v>179.61</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -788,51 +801,61 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>23.27</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>23.27</v>
+      </c>
       <c r="F9" s="10">
         <v>41960</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="26">
+        <v>41971</v>
+      </c>
       <c r="I9" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9">
         <f>SUM(E9:E100)</f>
-        <v>0</v>
+        <v>85.39</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
         <v>37.22</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3">
+        <v>37.22</v>
+      </c>
       <c r="F10" s="10">
         <v>41970</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="26">
+        <v>41977</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
         <v>7.95</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3">
+        <v>7.95</v>
+      </c>
       <c r="F11" s="10">
         <v>41970</v>
       </c>
@@ -840,26 +863,30 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>16.95</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3">
+        <v>16.95</v>
+      </c>
       <c r="F12" s="10">
         <v>41970</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="26">
+        <v>41977</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>50</v>
       </c>
       <c r="E13" s="2"/>
@@ -868,20 +895,20 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>60</v>
       </c>
       <c r="E15" s="2"/>
@@ -890,17 +917,17 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2">
@@ -912,7 +939,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2">
@@ -924,11 +951,11 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
@@ -936,7 +963,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="14">
@@ -948,7 +975,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="14">
@@ -960,15 +987,887 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="14">
         <v>10</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/bin/Kostenübersicht.xlsx
+++ b/bin/Kostenübersicht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Kostenübersicht PREN Gruppe 39</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>Budget (CHF)</t>
+  </si>
+  <si>
+    <t>Lager Platte</t>
+  </si>
+  <si>
+    <t>Lager Rad 1</t>
+  </si>
+  <si>
+    <t>Lager Rad 2</t>
+  </si>
+  <si>
+    <t>Lager Motor</t>
+  </si>
+  <si>
+    <t>Holz</t>
   </si>
 </sst>
 </file>
@@ -149,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -207,66 +222,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -316,13 +271,56 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -332,9 +330,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,19 +339,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -372,6 +356,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,26 +368,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,97 +728,97 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="27"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="J8">
         <f>600-SUM(D9:D100)</f>
-        <v>179.61</v>
+        <v>139.61000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="23">
         <v>23.27</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="23">
         <v>23.27</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="24">
         <v>41960</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <v>41971</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J9">
@@ -824,1050 +827,1062 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>37.22</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>37.22</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="4">
         <v>41970</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="4">
         <v>41977</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>7.95</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>7.95</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="4">
         <v>41970</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>16.95</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>16.95</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="4">
         <v>41970</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="4">
         <v>41977</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="1">
         <v>50</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="1">
         <v>60</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="1">
         <v>100</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="14">
+      <c r="C20" s="3"/>
+      <c r="D20" s="8">
         <v>30</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="14">
+      <c r="C21" s="3"/>
+      <c r="D21" s="8">
         <v>30</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="14">
+      <c r="C22" s="3"/>
+      <c r="D22" s="8">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/bin/Kostenübersicht.xlsx
+++ b/bin/Kostenübersicht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Kostenübersicht PREN Gruppe 39</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Kamera</t>
   </si>
   <si>
-    <t>TEIL</t>
-  </si>
-  <si>
     <t>Budget</t>
   </si>
   <si>
@@ -70,15 +67,9 @@
     <t>Rad</t>
   </si>
   <si>
-    <t>Rad Welle</t>
-  </si>
-  <si>
     <t>Spindel</t>
   </si>
   <si>
-    <t>Mutter</t>
-  </si>
-  <si>
     <t>Zahnrieme</t>
   </si>
   <si>
@@ -110,6 +101,9 @@
   </si>
   <si>
     <t>Holz</t>
+  </si>
+  <si>
+    <t>Teil</t>
   </si>
 </sst>
 </file>
@@ -164,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -318,6 +312,126 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -330,26 +444,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -359,6 +462,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,25 +542,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -711,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J131"/>
+  <dimension ref="B1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,75 +867,75 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="11"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>3</v>
-      </c>
       <c r="J8">
-        <f>600-SUM(D9:D100)</f>
-        <v>139.61000000000001</v>
+        <f>600-SUM(D9:D98)</f>
+        <v>99.610000000000014</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -804,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="23">
         <v>23.27</v>
@@ -815,1078 +954,1092 @@
       <c r="F9" s="24">
         <v>41960</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="25">
         <v>41971</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <f>SUM(E9:E98)</f>
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="16">
+        <v>37.22</v>
+      </c>
+      <c r="E10" s="17">
+        <v>37.22</v>
+      </c>
+      <c r="F10" s="18">
+        <v>41970</v>
+      </c>
+      <c r="G10" s="27">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="16">
+        <v>7.95</v>
+      </c>
+      <c r="E11" s="17">
+        <v>7.95</v>
+      </c>
+      <c r="F11" s="18">
+        <v>41970</v>
+      </c>
+      <c r="G11" s="27">
+        <v>41991</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="16">
+        <v>16.95</v>
+      </c>
+      <c r="E12" s="17">
+        <v>16.95</v>
+      </c>
+      <c r="F12" s="18">
+        <v>41970</v>
+      </c>
+      <c r="G12" s="27">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
+        <v>30</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16">
+        <v>60</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16">
+        <v>100</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16">
+        <v>20</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16">
+        <v>50</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="20">
+        <v>30</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="20">
+        <v>30</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J9">
-        <f>SUM(E9:E100)</f>
-        <v>85.39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1">
-        <v>37.22</v>
-      </c>
-      <c r="E10" s="2">
-        <v>37.22</v>
-      </c>
-      <c r="F10" s="4">
-        <v>41970</v>
-      </c>
-      <c r="G10" s="4">
-        <v>41977</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="16">
+        <v>25</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7.95</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7.95</v>
-      </c>
-      <c r="F11" s="4">
-        <v>41970</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
-        <v>16.95</v>
-      </c>
-      <c r="E12" s="2">
-        <v>16.95</v>
-      </c>
-      <c r="F12" s="4">
-        <v>41970</v>
-      </c>
-      <c r="G12" s="4">
-        <v>41977</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="1">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16">
+        <v>15</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="16">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32">
+        <v>15</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/Kostenübersicht.xlsx
+++ b/bin/Kostenübersicht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Kostenübersicht PREN Gruppe 39</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Kamera</t>
   </si>
   <si>
-    <t>Budget</t>
-  </si>
-  <si>
     <t>Motor Drehrad</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Zahnriemenscheibe Motor</t>
   </si>
   <si>
-    <t>Bezahlt</t>
-  </si>
-  <si>
     <t>Preis (CHF)</t>
   </si>
   <si>
@@ -104,14 +98,18 @@
   </si>
   <si>
     <t>Teil</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;fr.&quot;\ * #,##0.00_ ;_ &quot;fr.&quot;\ * \-#,##0.00_ ;_ &quot;fr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -453,12 +451,6 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,6 +507,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,8 +537,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J129"/>
+  <dimension ref="B1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,545 +863,539 @@
     <col min="6" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="43"/>
-    </row>
-    <row r="4" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="43"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="21">
+        <v>23.27</v>
+      </c>
+      <c r="E9" s="21">
+        <v>23.27</v>
+      </c>
+      <c r="F9" s="22">
+        <v>41960</v>
+      </c>
+      <c r="G9" s="23">
+        <v>41971</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14">
+        <v>37.22</v>
+      </c>
+      <c r="E10" s="15">
+        <v>37.22</v>
+      </c>
+      <c r="F10" s="16">
+        <v>41970</v>
+      </c>
+      <c r="G10" s="25">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14">
+        <v>7.95</v>
+      </c>
+      <c r="E11" s="15">
+        <v>7.95</v>
+      </c>
+      <c r="F11" s="16">
+        <v>41970</v>
+      </c>
+      <c r="G11" s="25">
+        <v>41991</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14">
+        <v>16.95</v>
+      </c>
+      <c r="E12" s="15">
+        <v>16.95</v>
+      </c>
+      <c r="F12" s="16">
+        <v>41970</v>
+      </c>
+      <c r="G12" s="25">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14">
+        <v>30</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14">
+        <v>60</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14">
+        <v>100</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14">
+        <v>20</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14">
+        <v>50</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="18">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="18">
+        <v>30</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="18">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14">
+        <v>25</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <f>600-SUM(D9:D98)</f>
-        <v>99.610000000000014</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14">
         <v>15</v>
       </c>
-      <c r="D9" s="23">
-        <v>23.27</v>
-      </c>
-      <c r="E9" s="23">
-        <v>23.27</v>
-      </c>
-      <c r="F9" s="24">
-        <v>41960</v>
-      </c>
-      <c r="G9" s="25">
-        <v>41971</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9">
-        <f>SUM(E9:E98)</f>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14">
+        <v>15</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14">
+        <v>15</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30">
+        <v>15</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="43">
+        <f>SUM(D9:D25)</f>
+        <v>500.39</v>
+      </c>
+      <c r="E26" s="43">
+        <f>SUM(E9:E25)</f>
         <v>85.39</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="16">
-        <v>37.22</v>
-      </c>
-      <c r="E10" s="17">
-        <v>37.22</v>
-      </c>
-      <c r="F10" s="18">
-        <v>41970</v>
-      </c>
-      <c r="G10" s="27">
-        <v>41977</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="16">
-        <v>7.95</v>
-      </c>
-      <c r="E11" s="17">
-        <v>7.95</v>
-      </c>
-      <c r="F11" s="18">
-        <v>41970</v>
-      </c>
-      <c r="G11" s="27">
-        <v>41991</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="16">
-        <v>16.95</v>
-      </c>
-      <c r="E12" s="17">
-        <v>16.95</v>
-      </c>
-      <c r="F12" s="18">
-        <v>41970</v>
-      </c>
-      <c r="G12" s="27">
-        <v>41977</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16">
-        <v>30</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16">
-        <v>60</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16">
-        <v>100</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16">
-        <v>20</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16">
-        <v>50</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="20">
-        <v>30</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="20">
-        <v>30</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="20">
-        <v>10</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16">
-        <v>25</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16">
-        <v>15</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16">
-        <v>15</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16">
-        <v>15</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32">
-        <v>15</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
